--- a/ColetasUS/Coletas US.xlsx
+++ b/ColetasUS/Coletas US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\range\Documents\GitHub\TCC2\ColetasUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C2C86B-F80B-4BDB-B5BE-C548885A3417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2256439-AAA6-4259-B2F3-AE0CC1AFF5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,9 @@
     <sheet name="US CENSUS EDUCAÇÃO" sheetId="8" r:id="rId4"/>
     <sheet name="Graphs" sheetId="4" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
     <definedName name="all_2019_05_12__15_04_13." localSheetId="0">'2019-2020'!$A$2:$C$54</definedName>
     <definedName name="all_2019_05_21__19_29_29." localSheetId="0">'2019-2020'!$D$2:$D$54</definedName>
@@ -4234,7 +4237,7 @@
     <t>55 a 64 anos</t>
   </si>
   <si>
-    <t>65 a 74 anos</t>
+    <t>65+ anos</t>
   </si>
 </sst>
 </file>
@@ -4327,9 +4330,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4342,6 +4342,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5683,6 +5686,1450 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Africano-Am.</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2019-2020'!$C$1:$AO$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>43597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43606</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43620</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43627</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43634</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43641</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43648</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43655</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43663</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43697</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43704</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43711</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43718</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43732</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43746</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43781</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2019-2020'!$C$40:$AO$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>23000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>82000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>110000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>110000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>110000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>110000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>110000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>110000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>110000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>110000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>110000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>110000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>110000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>110000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>110000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>110000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>110000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>99000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>103000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>102000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A5F-401F-A4FB-68DD4A6F2FC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Asiatico-Am.</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2019-2020'!$C$1:$AO$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>43597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43606</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43620</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43627</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43634</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43641</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43648</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43655</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43663</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43697</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43704</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43711</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43718</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43732</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43746</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43781</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2019-2020'!$C$41:$AO$41</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>4500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4400000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4300000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3900000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4200000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4100000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3900000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3900000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3800000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3900000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3700000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5300000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5300000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5300000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5300000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5300000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5300000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5300000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5300000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5200000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5200000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5200000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5100000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5100000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5100000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4700000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4800000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4700000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6A5F-401F-A4FB-68DD4A6F2FC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Hispanico</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2019-2020'!$C$1:$AO$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>43597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43606</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43620</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43627</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43634</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43641</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43648</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43655</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43663</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43697</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43704</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43711</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43718</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43732</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43746</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43781</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2019-2020'!$C$42:$AO$42</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>24000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6A5F-401F-A4FB-68DD4A6F2FC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Caucasiano</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2019-2020'!$C$1:$AO$1</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>43597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43606</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43620</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43627</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43634</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43641</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43648</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43655</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43663</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43697</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43704</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43711</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43718</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43732</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43746</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43781</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2019-2020'!$C$43:$AO$43</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>160000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>140000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>160000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>160000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>130000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>88000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>92000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>95000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>95000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>97000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>97000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>98000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>110000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>110000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>109000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>110000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6A5F-401F-A4FB-68DD4A6F2FC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="607985264"/>
+        <c:axId val="607985920"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="607985264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Variação</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de tempo</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607985920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="607985920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Quantidade de Pessoas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607985264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7947,7 +9394,7 @@
                   <c:v>55 a 64 anos</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65 a 74 anos</c:v>
+                  <c:v>65+ anos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8029,7 +9476,7 @@
                   <c:v>42342898.467</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31510994.208000001</c:v>
+                  <c:v>54159521.295000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8162,6 +9609,7 @@
         <c:axId val="553925064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="60000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9764,37 +11212,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -10084,6 +11502,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Variação de Tempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10148,6 +11621,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Quantidade</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> de Pessoas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10235,7 +11767,640 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Combined!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>all</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Combined!$C$1:$AP$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44216</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44237</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44268</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44277</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44283</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44291</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44298</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44305</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44320</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44323</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44327</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44339</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44358</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44361</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44380</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44396</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44403</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44410</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44430</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44453</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44459</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44473</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44480</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44492</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Combined!$C$2:$AP$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>130000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>140000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>160000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>160000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>160000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>170000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>166300000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>165200000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>166300000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>166500000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>165300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-043E-46CF-8821-E28202798E52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="557085656"/>
+        <c:axId val="557086640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="557085656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Variação de Tempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557086640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="557086640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="120000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Quantidade de Pessoas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557085656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10555,7 +12720,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14668,6 +17389,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -14745,15 +17982,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14888,16 +18125,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>490537</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14924,16 +18161,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>216554</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>165006</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>50706</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14958,75 +18195,418 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>336831</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>165847</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F316E20-8B14-45D8-A234-9501047AABB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>15688</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>135245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>58212</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>20945</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC115708-BB93-C752-6C85-DFD70F352545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="2019-2020"/>
+      <sheetName val="2021"/>
+      <sheetName val="Combined"/>
+      <sheetName val="Censo"/>
+      <sheetName val="Graphs"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="C1">
+            <v>43983</v>
+          </cell>
+          <cell r="D1">
+            <v>43985</v>
+          </cell>
+          <cell r="E1">
+            <v>44005</v>
+          </cell>
+          <cell r="F1">
+            <v>44016</v>
+          </cell>
+          <cell r="G1">
+            <v>44043</v>
+          </cell>
+          <cell r="H1">
+            <v>44110</v>
+          </cell>
+          <cell r="I1">
+            <v>44118</v>
+          </cell>
+          <cell r="J1">
+            <v>44124</v>
+          </cell>
+          <cell r="K1">
+            <v>44141</v>
+          </cell>
+          <cell r="L1">
+            <v>44216</v>
+          </cell>
+          <cell r="M1">
+            <v>44222</v>
+          </cell>
+          <cell r="N1">
+            <v>44228</v>
+          </cell>
+          <cell r="O1">
+            <v>44237</v>
+          </cell>
+          <cell r="P1">
+            <v>44256</v>
+          </cell>
+          <cell r="Q1">
+            <v>44268</v>
+          </cell>
+          <cell r="R1">
+            <v>44277</v>
+          </cell>
+          <cell r="S1">
+            <v>44283</v>
+          </cell>
+          <cell r="T1">
+            <v>44291</v>
+          </cell>
+          <cell r="U1">
+            <v>44298</v>
+          </cell>
+          <cell r="V1">
+            <v>44305</v>
+          </cell>
+          <cell r="W1">
+            <v>44316</v>
+          </cell>
+          <cell r="X1">
+            <v>44320</v>
+          </cell>
+          <cell r="Y1">
+            <v>44323</v>
+          </cell>
+          <cell r="Z1">
+            <v>44327</v>
+          </cell>
+          <cell r="AA1">
+            <v>44339</v>
+          </cell>
+          <cell r="AB1">
+            <v>44358</v>
+          </cell>
+          <cell r="AC1">
+            <v>44361</v>
+          </cell>
+          <cell r="AD1">
+            <v>44375</v>
+          </cell>
+          <cell r="AE1">
+            <v>44380</v>
+          </cell>
+          <cell r="AF1">
+            <v>44396</v>
+          </cell>
+          <cell r="AG1">
+            <v>44403</v>
+          </cell>
+          <cell r="AH1">
+            <v>44410</v>
+          </cell>
+          <cell r="AI1">
+            <v>44430</v>
+          </cell>
+          <cell r="AJ1">
+            <v>44453</v>
+          </cell>
+          <cell r="AK1">
+            <v>44459</v>
+          </cell>
+          <cell r="AL1">
+            <v>44473</v>
+          </cell>
+          <cell r="AM1">
+            <v>44480</v>
+          </cell>
+          <cell r="AN1">
+            <v>44487</v>
+          </cell>
+          <cell r="AO1">
+            <v>44492</v>
+          </cell>
+          <cell r="AP1">
+            <v>44503</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>all</v>
+          </cell>
+          <cell r="C2">
+            <v>130000000</v>
+          </cell>
+          <cell r="D2">
+            <v>140000000</v>
+          </cell>
+          <cell r="E2">
+            <v>140000000</v>
+          </cell>
+          <cell r="F2">
+            <v>140000000</v>
+          </cell>
+          <cell r="G2">
+            <v>142000000</v>
+          </cell>
+          <cell r="H2">
+            <v>140000000</v>
+          </cell>
+          <cell r="I2">
+            <v>140000000</v>
+          </cell>
+          <cell r="J2">
+            <v>150000000</v>
+          </cell>
+          <cell r="K2">
+            <v>150000000</v>
+          </cell>
+          <cell r="L2">
+            <v>150000000</v>
+          </cell>
+          <cell r="M2">
+            <v>150000000</v>
+          </cell>
+          <cell r="N2">
+            <v>150000000</v>
+          </cell>
+          <cell r="O2">
+            <v>150000000</v>
+          </cell>
+          <cell r="P2">
+            <v>150000000</v>
+          </cell>
+          <cell r="Q2">
+            <v>150000000</v>
+          </cell>
+          <cell r="R2">
+            <v>150000000</v>
+          </cell>
+          <cell r="S2">
+            <v>150000000</v>
+          </cell>
+          <cell r="T2">
+            <v>150000000</v>
+          </cell>
+          <cell r="U2">
+            <v>150000000</v>
+          </cell>
+          <cell r="V2">
+            <v>150000000</v>
+          </cell>
+          <cell r="W2">
+            <v>150000000</v>
+          </cell>
+          <cell r="X2">
+            <v>150000000</v>
+          </cell>
+          <cell r="Y2">
+            <v>150000000</v>
+          </cell>
+          <cell r="Z2">
+            <v>150000000</v>
+          </cell>
+          <cell r="AA2">
+            <v>150000000</v>
+          </cell>
+          <cell r="AB2">
+            <v>150000000</v>
+          </cell>
+          <cell r="AC2">
+            <v>150000000</v>
+          </cell>
+          <cell r="AD2">
+            <v>160000000</v>
+          </cell>
+          <cell r="AE2">
+            <v>160000000</v>
+          </cell>
+          <cell r="AF2">
+            <v>150000000</v>
+          </cell>
+          <cell r="AG2">
+            <v>150000000</v>
+          </cell>
+          <cell r="AH2">
+            <v>160000000</v>
+          </cell>
+          <cell r="AI2">
+            <v>150000000</v>
+          </cell>
+          <cell r="AJ2">
+            <v>170000000</v>
+          </cell>
+          <cell r="AK2">
+            <v>170000000</v>
+          </cell>
+          <cell r="AL2">
+            <v>166300000</v>
+          </cell>
+          <cell r="AM2">
+            <v>165200000</v>
+          </cell>
+          <cell r="AN2">
+            <v>166300000</v>
+          </cell>
+          <cell r="AO2">
+            <v>166500000</v>
+          </cell>
+          <cell r="AP2">
+            <v>165300000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-05-28--09-17-07." connectionId="3" xr16:uid="{05761B00-079A-4FEB-BF08-C4776A4CBF30}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-09-03--19-24-30." connectionId="13" xr16:uid="{199C81AA-1005-4504-9E79-65B74C0BE36E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-10-08--01-05-50." connectionId="17" xr16:uid="{9A8F74AE-38BB-46D5-A2C3-7DF1823CCA82}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-05-12--15-04-13." connectionId="1" xr16:uid="{346376DA-3C07-4820-832D-3AF8CBF8A8DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-03-30--21-56-53." connectionId="22" xr16:uid="{18CAA56B-D948-45AC-AB8B-CA98205FF37A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-07-17--00-48-30." connectionId="10" xr16:uid="{7828BF58-086C-44B7-8BF1-0CDBC4D8A434}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-07-09--01-45-53." connectionId="9" xr16:uid="{82E29812-6D6B-4CC8-A6FB-D5C3185C0426}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-05-19--18-31-58." connectionId="31" xr16:uid="{86A530DF-842E-4244-A154-2AC1A6D9A635}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-04-23--11-41-26." connectionId="27" xr16:uid="{F1390B64-688A-4938-A354-FA7157FD17FC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-09-10--12-41-45." connectionId="14" xr16:uid="{93B9DAEA-B35D-4E6F-9AAA-2CB84140DC01}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-09-24--12-56-54." connectionId="15" xr16:uid="{96925F57-D22D-45F5-B3A9-9517379348AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-08-27--20-30-59." connectionId="12" xr16:uid="{F99EA359-11E0-4B94-9568-9E534F6C3542}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-05-28--02-11-23." connectionId="32" xr16:uid="{3352DF9A-0E39-4FCD-ADB9-2B28D1A99B41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-04-10--23-38-16." connectionId="24" xr16:uid="{E4A7D381-A15D-4FB1-B40B-BC1030430E35}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-06-04--12-23-25." connectionId="4" xr16:uid="{02984103-D49E-45F3-99AA-D04553F57B76}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-06-18--02-05-00._1" connectionId="6" xr16:uid="{52F2C21F-4A03-4E29-97B2-CDF9EF6A4578}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-04-23--11-41-26." connectionId="27" xr16:uid="{F1390B64-688A-4938-A354-FA7157FD17FC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-05-04--21-20-04." connectionId="29" xr16:uid="{5DC7B0F0-75F1-4DA8-AD24-016B9A54C833}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-08-20--21-28-21." connectionId="11" xr16:uid="{74DD94DF-FBCB-4901-A4E0-30A055B4D0AE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-05-12--19-59-44." connectionId="30" xr16:uid="{CB376702-5563-41C2-ABA0-707321D0F638}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-06-11--16-25-41." connectionId="5" xr16:uid="{AB5378D5-9F5B-4FE8-A391-7AE854C6E138}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-06-09--16-25-23." connectionId="34" xr16:uid="{8FEA8AE6-67CF-41C4-B5AA-58F34F9324F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-07-17--00-48-30." connectionId="10" xr16:uid="{7828BF58-086C-44B7-8BF1-0CDBC4D8A434}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-06-23--16-36-13." connectionId="36" xr16:uid="{ECADB68F-8B18-4CAD-99DB-EA918C863735}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-05-21--19-29-29." connectionId="2" xr16:uid="{5681A2D0-FAF3-4086-9B1B-FEC59BD9C0FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-06-14--15-59-34." connectionId="35" xr16:uid="{5339C0BA-A0B7-43A9-8040-601666BF50F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-07-04--06-15-23." connectionId="37" xr16:uid="{662D8730-3A45-4DA7-8032-91689B1E8089}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-06-03--07-37-54." connectionId="33" xr16:uid="{EDA779A1-9AEE-4511-B2C6-156F51433834}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-06-03--07-37-54." connectionId="33" xr16:uid="{EDA779A1-9AEE-4511-B2C6-156F51433834}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-07-02--00-12-32." connectionId="8" xr16:uid="{60F5B8E4-58D7-43C5-9CA7-63E8DD61F366}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-03-04--21-17-10." connectionId="19" xr16:uid="{53DA7006-8031-450A-89FC-03919916EE1E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-03-23--16-45-37." connectionId="21" xr16:uid="{AE29B555-9D01-4318-AB0B-9F163AA723EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15034,79 +18614,79 @@
 </file>
 
 <file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-09-03--19-24-30." connectionId="13" xr16:uid="{199C81AA-1005-4504-9E79-65B74C0BE36E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-05-21--19-29-29." connectionId="2" xr16:uid="{5681A2D0-FAF3-4086-9B1B-FEC59BD9C0FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-03-04--21-17-10." connectionId="19" xr16:uid="{53DA7006-8031-450A-89FC-03919916EE1E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-10-08--01-05-50." connectionId="17" xr16:uid="{9A8F74AE-38BB-46D5-A2C3-7DF1823CCA82}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-06-25--03-13-03." connectionId="7" xr16:uid="{A15C110D-AF8F-4EF7-9336-E73101C63F1D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-03-18--16-10-30." connectionId="20" xr16:uid="{44E73AF4-C8CD-4280-B157-3D3317C08F01}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-04-25--15-19-25." connectionId="28" xr16:uid="{254EA2FC-F96C-450B-8299-725F74DDAEC1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-05-28--09-17-07." connectionId="3" xr16:uid="{05761B00-079A-4FEB-BF08-C4776A4CBF30}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-07-19--14-43-03." connectionId="39" xr16:uid="{27EAF1BC-40E0-4170-9F41-6605E56F1E80}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-04-14--18-28-03." connectionId="25" xr16:uid="{F96EFF56-35DD-48E2-BC2F-7A2321C0E72A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-04-20--09-50-49." connectionId="26" xr16:uid="{446F5693-BA24-4262-AF33-6D84CF928443}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-06-11--16-25-41." connectionId="5" xr16:uid="{AB5378D5-9F5B-4FE8-A391-7AE854C6E138}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-04-25--15-19-25." connectionId="28" xr16:uid="{254EA2FC-F96C-450B-8299-725F74DDAEC1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-06-23--16-36-13." connectionId="36" xr16:uid="{ECADB68F-8B18-4CAD-99DB-EA918C863735}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-06-25--03-13-03." connectionId="7" xr16:uid="{A15C110D-AF8F-4EF7-9336-E73101C63F1D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-05-12--19-59-44." connectionId="30" xr16:uid="{CB376702-5563-41C2-ABA0-707321D0F638}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-07-13--08-28-01." connectionId="38" xr16:uid="{4F9D246A-EDAE-471A-9CB6-64982D2B2A36}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-07-04--06-15-23." connectionId="37" xr16:uid="{662D8730-3A45-4DA7-8032-91689B1E8089}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-10-01--16-37-39." connectionId="16" xr16:uid="{B3A3FC2D-D04C-4405-B85B-EF174E767EBD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-07-09--01-45-53." connectionId="9" xr16:uid="{82E29812-6D6B-4CC8-A6FB-D5C3185C0426}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-09-24--12-56-54." connectionId="15" xr16:uid="{96925F57-D22D-45F5-B3A9-9517379348AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-06-18--02-05-00._1" connectionId="6" xr16:uid="{52F2C21F-4A03-4E29-97B2-CDF9EF6A4578}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-03-23--16-45-37." connectionId="21" xr16:uid="{AE29B555-9D01-4318-AB0B-9F163AA723EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-07-02--00-12-32." connectionId="8" xr16:uid="{60F5B8E4-58D7-43C5-9CA7-63E8DD61F366}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-03-18--16-10-30." connectionId="20" xr16:uid="{44E73AF4-C8CD-4280-B157-3D3317C08F01}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-03-30--21-56-53." connectionId="22" xr16:uid="{18CAA56B-D948-45AC-AB8B-CA98205FF37A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-11-12--19-15-45." connectionId="18" xr16:uid="{49D582A2-CB28-400A-9FED-476361F0F73A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-07-19--14-43-03." connectionId="39" xr16:uid="{27EAF1BC-40E0-4170-9F41-6605E56F1E80}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-08-27--20-30-59." connectionId="12" xr16:uid="{F99EA359-11E0-4B94-9568-9E534F6C3542}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-06-04--12-23-25." connectionId="4" xr16:uid="{02984103-D49E-45F3-99AA-D04553F57B76}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-20--04-17-04." connectionId="42" xr16:uid="{640DF5E2-2EAF-43FC-8A65-1408D5393CC3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-01--08-39-37." connectionId="48" xr16:uid="{D5301B3A-9786-4AEE-B15C-C90D83582ECC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-01--08-39-37." connectionId="48" xr16:uid="{D5301B3A-9786-4AEE-B15C-C90D83582ECC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-11--10-46-09." connectionId="60" xr16:uid="{256F2144-DC44-4DF1-A0AF-A3C51C2B9B2C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-23--21-17-24." connectionId="75" xr16:uid="{24E06263-BB1C-4BA4-ADEA-8FFEF23E5BAC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-06--18-02-33." connectionId="40" xr16:uid="{490C7517-048E-418E-920C-A9ADF986ABF4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15114,155 +18694,155 @@
 </file>
 
 <file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-05--13-02-31." connectionId="52" xr16:uid="{AF8DFD37-0777-49FA-A8B1-D4CCB5CCB796}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-14--17-03-34." connectionId="41" xr16:uid="{61019E5F-48C4-4509-A069-03A531121AC4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-11--17-48-41." connectionId="73" xr16:uid="{A82B9025-5F5E-4E78-877D-F4591784C93D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-14--12-35-07." connectionId="61" xr16:uid="{1B65FB15-28B5-4E40-940A-2FF1835863BD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-22--09-25-31." connectionId="62" xr16:uid="{112680C6-472D-4B07-9AC4-71FB85C269F0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-23--21-17-24." connectionId="75" xr16:uid="{24E06263-BB1C-4BA4-ADEA-8FFEF23E5BAC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-11-12--19-15-45." connectionId="18" xr16:uid="{49D582A2-CB28-400A-9FED-476361F0F73A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-28--11-44-33." connectionId="63" xr16:uid="{65DC1028-BB2A-45F7-B4B5-A2D1A6598FA0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-20--04-17-04." connectionId="42" xr16:uid="{640DF5E2-2EAF-43FC-8A65-1408D5393CC3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-13--01-36-46." connectionId="49" xr16:uid="{F8D31488-F53C-4855-BA2E-4CE4A15356F0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-30--15-22-58." connectionId="55" xr16:uid="{F631392A-8BC2-4C08-BD66-CA37715E8530}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-07--11-45-04." connectionId="57" xr16:uid="{C7158C70-CB95-4224-980A-0748097A10E0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-18--16-24-40." connectionId="74" xr16:uid="{859213DF-47C1-4D65-A332-7A94957A900D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-02-01--08-53-23." connectionId="46" xr16:uid="{EADC6749-6C76-47FA-B0CF-19B04C31F572}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-02-10--10-19-54." connectionId="47" xr16:uid="{2D4EF2A8-84A3-4346-9FCF-9B438682E604}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-18--16-24-40." connectionId="74" xr16:uid="{859213DF-47C1-4D65-A332-7A94957A900D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-01-26--14-02-54." connectionId="45" xr16:uid="{B3416859-921D-4DBD-89C0-F7C2FF7710E5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-04--12-52-24." connectionId="56" xr16:uid="{40DDF84F-A2AC-4FF0-A5BB-65D68F111380}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-04-20--09-50-49." connectionId="26" xr16:uid="{446F5693-BA24-4262-AF33-6D84CF928443}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-08-02--10-31-33." connectionId="67" xr16:uid="{39FE2838-50BF-4A56-83D8-642BDFEA4187}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-11--02-08-55." connectionId="58" xr16:uid="{42C852E8-BEC7-4806-A966-3D77699FF33C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-11-06--18-21-37." connectionId="43" xr16:uid="{B1AF3473-2021-405F-B54E-3CFDE17F902E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-08-30--16-12-03." connectionId="69" xr16:uid="{5194517F-22B2-43F9-BA73-0981D8672764}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-11-03--11-18-32." connectionId="76" xr16:uid="{AB0D721F-A3F2-41F7-9287-57DE58A3FA2A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable65.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-04--19-41-51." connectionId="72" xr16:uid="{0E42C009-8D46-42F6-BD41-79D1D33E7AAC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable66.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-01-20--09-30-08." connectionId="44" xr16:uid="{B2624421-CD21-4E14-B5A1-669F56588045}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable67.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-12--19-09-18." connectionId="53" xr16:uid="{5F3536E5-8C93-4059-A908-448F4F18599C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable68.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-22--14-06-38." connectionId="50" xr16:uid="{61FA3D9B-9AD5-47DD-871D-DFBB1F582473}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable69.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-03--15-31-13." connectionId="64" xr16:uid="{2E1CB2B0-5371-49C4-B0EB-A7D32C43BC4D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-05-04--21-20-04." connectionId="29" xr16:uid="{5DC7B0F0-75F1-4DA8-AD24-016B9A54C833}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable70.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-26--16-41-50." connectionId="66" xr16:uid="{3E76D7C2-E2BF-402C-B6F9-FA87CD8328F0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable71.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-19--19-03-29." connectionId="65" xr16:uid="{EEF51E6D-D1D9-4846-8212-95D5E7310FB8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable72.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-09-14--15-29-27." connectionId="70" xr16:uid="{D0659DC4-FA7E-42F2-A50B-0395FE497E53}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable73.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-19--14-29-16." connectionId="54" xr16:uid="{01848EC0-DFAF-4091-8099-C465FBFED4FB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable74.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-09-20--11-26-40." connectionId="71" xr16:uid="{FA58AD68-AAEE-4EE0-945D-B40C671B9C62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable75.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-28--20-42-48." connectionId="51" xr16:uid="{A87A2CFD-32AB-4C54-A666-3CEED8BE60D4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-05--13-02-31." connectionId="52" xr16:uid="{AF8DFD37-0777-49FA-A8B1-D4CCB5CCB796}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-22--09-25-31." connectionId="62" xr16:uid="{112680C6-472D-4B07-9AC4-71FB85C269F0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-07-13--08-28-01." connectionId="38" xr16:uid="{4F9D246A-EDAE-471A-9CB6-64982D2B2A36}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-14--12-35-07." connectionId="61" xr16:uid="{1B65FB15-28B5-4E40-940A-2FF1835863BD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-04--12-52-24." connectionId="56" xr16:uid="{40DDF84F-A2AC-4FF0-A5BB-65D68F111380}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-22--14-06-38." connectionId="50" xr16:uid="{61FA3D9B-9AD5-47DD-871D-DFBB1F582473}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-09-20--11-26-40." connectionId="71" xr16:uid="{FA58AD68-AAEE-4EE0-945D-B40C671B9C62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-11--10-46-09." connectionId="60" xr16:uid="{256F2144-DC44-4DF1-A0AF-A3C51C2B9B2C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-19--14-29-16." connectionId="54" xr16:uid="{01848EC0-DFAF-4091-8099-C465FBFED4FB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-06-28--11-44-33." connectionId="63" xr16:uid="{65DC1028-BB2A-45F7-B4B5-A2D1A6598FA0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-09-14--15-29-27." connectionId="70" xr16:uid="{D0659DC4-FA7E-42F2-A50B-0395FE497E53}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-19--19-03-29." connectionId="65" xr16:uid="{EEF51E6D-D1D9-4846-8212-95D5E7310FB8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-07-26--16-41-50." connectionId="66" xr16:uid="{3E76D7C2-E2BF-402C-B6F9-FA87CD8328F0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-05-12--15-04-13." connectionId="1" xr16:uid="{346376DA-3C07-4820-832D-3AF8CBF8A8DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-08-30--16-12-03." connectionId="69" xr16:uid="{5194517F-22B2-43F9-BA73-0981D8672764}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-12--19-09-18." connectionId="53" xr16:uid="{5F3536E5-8C93-4059-A908-448F4F18599C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-06--18-02-33." connectionId="40" xr16:uid="{490C7517-048E-418E-920C-A9ADF986ABF4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-11-03--11-18-32." connectionId="76" xr16:uid="{AB0D721F-A3F2-41F7-9287-57DE58A3FA2A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-11--17-48-41." connectionId="73" xr16:uid="{A82B9025-5F5E-4E78-877D-F4591784C93D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable65.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-07--11-45-04." connectionId="57" xr16:uid="{C7158C70-CB95-4224-980A-0748097A10E0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable66.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-01-26--14-02-54." connectionId="45" xr16:uid="{B3416859-921D-4DBD-89C0-F7C2FF7710E5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable67.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-01-20--09-30-08." connectionId="44" xr16:uid="{B2624421-CD21-4E14-B5A1-669F56588045}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable68.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-10-14--17-03-34." connectionId="41" xr16:uid="{61019E5F-48C4-4509-A069-03A531121AC4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable69.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-11-06--18-21-37." connectionId="43" xr16:uid="{B1AF3473-2021-405F-B54E-3CFDE17F902E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2019-09-10--12-41-45." connectionId="14" xr16:uid="{93B9DAEA-B35D-4E6F-9AAA-2CB84140DC01}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable70.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-05-11--02-08-55." connectionId="58" xr16:uid="{42C852E8-BEC7-4806-A966-3D77699FF33C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable71.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-10-04--19-41-51." connectionId="72" xr16:uid="{0E42C009-8D46-42F6-BD41-79D1D33E7AAC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable72.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-08-02--10-31-33." connectionId="67" xr16:uid="{39FE2838-50BF-4A56-83D8-642BDFEA4187}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable76.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-08-22--15-16-39." connectionId="68" xr16:uid="{80160111-1ED8-4EE4-A1F5-BF6BF3F90140}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable74.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-04-30--15-22-58." connectionId="55" xr16:uid="{F631392A-8BC2-4C08-BD66-CA37715E8530}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable75.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-03-13--01-36-46." connectionId="49" xr16:uid="{F8D31488-F53C-4855-BA2E-4CE4A15356F0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable76.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2021-02-01--08-53-23." connectionId="46" xr16:uid="{EADC6749-6C76-47FA-B0CF-19B04C31F572}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-05-28--02-11-23." connectionId="32" xr16:uid="{3352DF9A-0E39-4FCD-ADB9-2B28D1A99B41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-06-09--16-25-23." connectionId="34" xr16:uid="{8FEA8AE6-67CF-41C4-B5AA-58F34F9324F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-05-19--18-31-58." connectionId="31" xr16:uid="{86A530DF-842E-4244-A154-2AC1A6D9A635}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="all_2020-06-14--15-59-34." connectionId="35" xr16:uid="{5339C0BA-A0B7-43A9-8040-601666BF50F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15531,10 +19111,10 @@
   <dimension ref="A1:AP54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB43" sqref="AB43"/>
+      <selection pane="bottomRight" activeCell="AB44" sqref="AB44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20913,7 +24493,7 @@
         <v>95000000</v>
       </c>
       <c r="AB43" s="2">
-        <v>0</v>
+        <v>95000000</v>
       </c>
       <c r="AC43" s="2">
         <v>97000000</v>
@@ -22344,7 +25924,7 @@
   <dimension ref="A1:AO49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AO5" sqref="AO5"/>
@@ -27789,10 +31369,10 @@
   <dimension ref="A1:D358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27806,19 +31386,19 @@
       <c r="A1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -28049,8 +31629,8 @@
         <v>72</v>
       </c>
       <c r="D21" s="2">
-        <f>B11*0.096</f>
-        <v>31510994.208000001</v>
+        <f>B11*0.096 +D22</f>
+        <v>54159521.295000002</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -31551,2741 +35131,2741 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" style="16" customWidth="1"/>
-    <col min="2" max="13" width="20" style="16" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="30" style="15" customWidth="1"/>
+    <col min="2" max="13" width="20" style="15" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
         <v>656</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19" t="s">
         <v>657</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19" t="s">
         <v>658</v>
       </c>
-      <c r="M2" s="14"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>660</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>661</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>662</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="15" t="s">
         <v>666</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="15" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>668</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>669</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>671</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>672</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="15" t="s">
         <v>673</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>675</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>677</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>678</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>679</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="15" t="s">
         <v>680</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="15" t="s">
         <v>682</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>684</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>686</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>687</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>688</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="15" t="s">
         <v>689</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>690</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>692</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>693</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>694</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>695</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="15" t="s">
         <v>696</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="15" t="s">
         <v>697</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>699</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>700</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>701</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="15" t="s">
         <v>702</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>703</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="15" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>704</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>706</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>708</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>709</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>710</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>711</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="15" t="s">
         <v>712</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>713</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>714</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>716</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>717</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>718</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>719</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="15" t="s">
         <v>720</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="15" t="s">
         <v>721</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="15" t="s">
         <v>722</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>723</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>724</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>726</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>727</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>728</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="15" t="s">
         <v>729</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="15" t="s">
         <v>730</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>732</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>733</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>734</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>735</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>736</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="15" t="s">
         <v>737</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="15" t="s">
         <v>738</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="15" t="s">
         <v>740</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>741</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>744</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>745</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="15" t="s">
         <v>747</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>748</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>749</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>750</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>751</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="15" t="s">
         <v>752</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="15" t="s">
         <v>753</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="L16" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="M16" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>758</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>759</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="M17" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>763</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>766</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="15" t="s">
         <v>768</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="M18" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>771</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>774</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="15" t="s">
         <v>777</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="M19" s="16" t="s">
+      <c r="M19" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>779</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>781</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>782</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>783</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="15" t="s">
         <v>784</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="15" t="s">
         <v>785</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M20" s="16" t="s">
+      <c r="M20" s="15" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>786</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>787</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>788</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="15" t="s">
         <v>789</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="15" t="s">
         <v>790</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="15" t="s">
         <v>791</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="J21" s="15" t="s">
         <v>792</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="15" t="s">
         <v>793</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="M21" s="16" t="s">
+      <c r="M21" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>795</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>798</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>799</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="15" t="s">
         <v>800</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="J22" s="15" t="s">
         <v>801</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="15" t="s">
         <v>802</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="15" t="s">
         <v>803</v>
       </c>
-      <c r="M22" s="16" t="s">
+      <c r="M22" s="15" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>804</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>805</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="15" t="s">
         <v>807</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="15" t="s">
         <v>808</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K23" s="15" t="s">
         <v>810</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L23" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M23" s="16" t="s">
+      <c r="M23" s="15" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>812</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>813</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="15" t="s">
         <v>814</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="15" t="s">
         <v>815</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="15" t="s">
         <v>816</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="15" t="s">
         <v>817</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="15" t="s">
         <v>818</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="L24" s="15" t="s">
         <v>819</v>
       </c>
-      <c r="M24" s="16" t="s">
+      <c r="M24" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>820</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>821</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>822</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="15" t="s">
         <v>824</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="15" t="s">
         <v>825</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="I25" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J25" s="15" t="s">
         <v>826</v>
       </c>
-      <c r="K25" s="16" t="s">
+      <c r="K25" s="15" t="s">
         <v>827</v>
       </c>
-      <c r="L25" s="16" t="s">
+      <c r="L25" s="15" t="s">
         <v>828</v>
       </c>
-      <c r="M25" s="16" t="s">
+      <c r="M25" s="15" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>829</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>830</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>831</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="15" t="s">
         <v>832</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="15" t="s">
         <v>833</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J26" s="15" t="s">
         <v>834</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="K26" s="15" t="s">
         <v>835</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="L26" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M26" s="16" t="s">
+      <c r="M26" s="15" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>836</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>837</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="15" t="s">
         <v>838</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="15" t="s">
         <v>839</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="15" t="s">
         <v>840</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="I27" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="15" t="s">
         <v>841</v>
       </c>
-      <c r="K27" s="16" t="s">
+      <c r="K27" s="15" t="s">
         <v>842</v>
       </c>
-      <c r="L27" s="16" t="s">
+      <c r="L27" s="15" t="s">
         <v>843</v>
       </c>
-      <c r="M27" s="16" t="s">
+      <c r="M27" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>844</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>845</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="15" t="s">
         <v>846</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="15" t="s">
         <v>847</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="15" t="s">
         <v>848</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="15" t="s">
         <v>849</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="16" t="s">
+      <c r="J28" s="15" t="s">
         <v>850</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K28" s="15" t="s">
         <v>851</v>
       </c>
-      <c r="L28" s="16" t="s">
+      <c r="L28" s="15" t="s">
         <v>800</v>
       </c>
-      <c r="M28" s="16" t="s">
+      <c r="M28" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>852</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>853</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>854</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="15" t="s">
         <v>855</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="15" t="s">
         <v>856</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="I29" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="J29" s="16" t="s">
+      <c r="J29" s="15" t="s">
         <v>857</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="K29" s="15" t="s">
         <v>858</v>
       </c>
-      <c r="L29" s="16" t="s">
+      <c r="L29" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M29" s="16" t="s">
+      <c r="M29" s="15" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>859</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>860</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="15" t="s">
         <v>861</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="15" t="s">
         <v>862</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="15" t="s">
         <v>863</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="15" t="s">
         <v>864</v>
       </c>
-      <c r="I30" s="16" t="s">
+      <c r="I30" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="J30" s="15" t="s">
         <v>865</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="K30" s="15" t="s">
         <v>866</v>
       </c>
-      <c r="L30" s="16" t="s">
+      <c r="L30" s="15" t="s">
         <v>867</v>
       </c>
-      <c r="M30" s="16" t="s">
+      <c r="M30" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>868</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>869</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>870</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="15" t="s">
         <v>871</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="15" t="s">
         <v>872</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="15" t="s">
         <v>873</v>
       </c>
-      <c r="I31" s="16" t="s">
+      <c r="I31" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J31" s="16" t="s">
+      <c r="J31" s="15" t="s">
         <v>874</v>
       </c>
-      <c r="K31" s="16" t="s">
+      <c r="K31" s="15" t="s">
         <v>875</v>
       </c>
-      <c r="L31" s="16" t="s">
+      <c r="L31" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="M31" s="16" t="s">
+      <c r="M31" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>645</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>877</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>878</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="15" t="s">
         <v>879</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="15" t="s">
         <v>880</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="I33" s="16" t="s">
+      <c r="I33" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="J33" s="16" t="s">
+      <c r="J33" s="15" t="s">
         <v>881</v>
       </c>
-      <c r="K33" s="16" t="s">
+      <c r="K33" s="15" t="s">
         <v>882</v>
       </c>
-      <c r="L33" s="16" t="s">
+      <c r="L33" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M33" s="16" t="s">
+      <c r="M33" s="15" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>883</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="15" t="s">
         <v>884</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="15" t="s">
         <v>885</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="15" t="s">
         <v>886</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="15" t="s">
         <v>887</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="15" t="s">
         <v>888</v>
       </c>
-      <c r="I34" s="16" t="s">
+      <c r="I34" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J34" s="16" t="s">
+      <c r="J34" s="15" t="s">
         <v>889</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="K34" s="15" t="s">
         <v>890</v>
       </c>
-      <c r="L34" s="16" t="s">
+      <c r="L34" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="M34" s="16" t="s">
+      <c r="M34" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>891</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>892</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="15" t="s">
         <v>893</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="15" t="s">
         <v>894</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="15" t="s">
         <v>895</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="15" t="s">
         <v>896</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="I35" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="J35" s="16" t="s">
+      <c r="J35" s="15" t="s">
         <v>897</v>
       </c>
-      <c r="K35" s="16" t="s">
+      <c r="K35" s="15" t="s">
         <v>898</v>
       </c>
-      <c r="L35" s="16" t="s">
+      <c r="L35" s="15" t="s">
         <v>899</v>
       </c>
-      <c r="M35" s="16" t="s">
+      <c r="M35" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>900</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>901</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>902</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="15" t="s">
         <v>903</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="15" t="s">
         <v>904</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="I36" s="16" t="s">
+      <c r="I36" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="J36" s="16" t="s">
+      <c r="J36" s="15" t="s">
         <v>905</v>
       </c>
-      <c r="K36" s="16" t="s">
+      <c r="K36" s="15" t="s">
         <v>906</v>
       </c>
-      <c r="L36" s="16" t="s">
+      <c r="L36" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M36" s="16" t="s">
+      <c r="M36" s="15" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>907</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>908</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="15" t="s">
         <v>909</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="15" t="s">
         <v>910</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="15" t="s">
         <v>911</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="15" t="s">
         <v>912</v>
       </c>
-      <c r="I37" s="16" t="s">
+      <c r="I37" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J37" s="16" t="s">
+      <c r="J37" s="15" t="s">
         <v>913</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="K37" s="15" t="s">
         <v>914</v>
       </c>
-      <c r="L37" s="16" t="s">
+      <c r="L37" s="15" t="s">
         <v>915</v>
       </c>
-      <c r="M37" s="16" t="s">
+      <c r="M37" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>916</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="15" t="s">
         <v>917</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="15" t="s">
         <v>918</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="15" t="s">
         <v>919</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="15" t="s">
         <v>920</v>
       </c>
-      <c r="H38" s="16" t="s">
+      <c r="H38" s="15" t="s">
         <v>921</v>
       </c>
-      <c r="I38" s="16" t="s">
+      <c r="I38" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="J38" s="16" t="s">
+      <c r="J38" s="15" t="s">
         <v>922</v>
       </c>
-      <c r="K38" s="16" t="s">
+      <c r="K38" s="15" t="s">
         <v>923</v>
       </c>
-      <c r="L38" s="16" t="s">
+      <c r="L38" s="15" t="s">
         <v>924</v>
       </c>
-      <c r="M38" s="16" t="s">
+      <c r="M38" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="17" t="s">
         <v>925</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>926</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>927</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="15" t="s">
         <v>928</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="15" t="s">
         <v>929</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="I39" s="16" t="s">
+      <c r="I39" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="J39" s="16" t="s">
+      <c r="J39" s="15" t="s">
         <v>930</v>
       </c>
-      <c r="K39" s="16" t="s">
+      <c r="K39" s="15" t="s">
         <v>931</v>
       </c>
-      <c r="L39" s="16" t="s">
+      <c r="L39" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M39" s="16" t="s">
+      <c r="M39" s="15" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>932</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="15" t="s">
         <v>934</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="15" t="s">
         <v>935</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="15" t="s">
         <v>937</v>
       </c>
-      <c r="I40" s="16" t="s">
+      <c r="I40" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J40" s="16" t="s">
+      <c r="J40" s="15" t="s">
         <v>938</v>
       </c>
-      <c r="K40" s="16" t="s">
+      <c r="K40" s="15" t="s">
         <v>939</v>
       </c>
-      <c r="L40" s="16" t="s">
+      <c r="L40" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="M40" s="16" t="s">
+      <c r="M40" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>940</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>941</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="15" t="s">
         <v>942</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="15" t="s">
         <v>943</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="15" t="s">
         <v>944</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="15" t="s">
         <v>945</v>
       </c>
-      <c r="I41" s="16" t="s">
+      <c r="I41" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J41" s="16" t="s">
+      <c r="J41" s="15" t="s">
         <v>946</v>
       </c>
-      <c r="K41" s="16" t="s">
+      <c r="K41" s="15" t="s">
         <v>947</v>
       </c>
-      <c r="L41" s="16" t="s">
+      <c r="L41" s="15" t="s">
         <v>948</v>
       </c>
-      <c r="M41" s="16" t="s">
+      <c r="M41" s="15" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="17" t="s">
         <v>949</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>950</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>951</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="15" t="s">
         <v>952</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="15" t="s">
         <v>953</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="I42" s="16" t="s">
+      <c r="I42" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="J42" s="16" t="s">
+      <c r="J42" s="15" t="s">
         <v>954</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="K42" s="15" t="s">
         <v>955</v>
       </c>
-      <c r="L42" s="16" t="s">
+      <c r="L42" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M42" s="16" t="s">
+      <c r="M42" s="15" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>956</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>957</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="15" t="s">
         <v>958</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="15" t="s">
         <v>959</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="15" t="s">
         <v>960</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="H43" s="15" t="s">
         <v>961</v>
       </c>
-      <c r="I43" s="16" t="s">
+      <c r="I43" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="J43" s="16" t="s">
+      <c r="J43" s="15" t="s">
         <v>962</v>
       </c>
-      <c r="K43" s="16" t="s">
+      <c r="K43" s="15" t="s">
         <v>963</v>
       </c>
-      <c r="L43" s="16" t="s">
+      <c r="L43" s="15" t="s">
         <v>964</v>
       </c>
-      <c r="M43" s="16" t="s">
+      <c r="M43" s="15" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>965</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="15" t="s">
         <v>966</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="15" t="s">
         <v>967</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="15" t="s">
         <v>968</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="15" t="s">
         <v>969</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="H44" s="15" t="s">
         <v>970</v>
       </c>
-      <c r="I44" s="16" t="s">
+      <c r="I44" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="J44" s="16" t="s">
+      <c r="J44" s="15" t="s">
         <v>971</v>
       </c>
-      <c r="K44" s="16" t="s">
+      <c r="K44" s="15" t="s">
         <v>972</v>
       </c>
-      <c r="L44" s="16" t="s">
+      <c r="L44" s="15" t="s">
         <v>973</v>
       </c>
-      <c r="M44" s="16" t="s">
+      <c r="M44" s="15" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="17" t="s">
         <v>649</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>974</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="15" t="s">
         <v>975</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="15" t="s">
         <v>976</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="15" t="s">
         <v>977</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="H45" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="I45" s="16" t="s">
+      <c r="I45" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="J45" s="16" t="s">
+      <c r="J45" s="15" t="s">
         <v>978</v>
       </c>
-      <c r="K45" s="16" t="s">
+      <c r="K45" s="15" t="s">
         <v>979</v>
       </c>
-      <c r="L45" s="16" t="s">
+      <c r="L45" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M45" s="16" t="s">
+      <c r="M45" s="15" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>980</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="15" t="s">
         <v>981</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="15" t="s">
         <v>982</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="15" t="s">
         <v>983</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="15" t="s">
         <v>984</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="15" t="s">
         <v>813</v>
       </c>
-      <c r="I46" s="16" t="s">
+      <c r="I46" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J46" s="16" t="s">
+      <c r="J46" s="15" t="s">
         <v>985</v>
       </c>
-      <c r="K46" s="16" t="s">
+      <c r="K46" s="15" t="s">
         <v>986</v>
       </c>
-      <c r="L46" s="16" t="s">
+      <c r="L46" s="15" t="s">
         <v>987</v>
       </c>
-      <c r="M46" s="16" t="s">
+      <c r="M46" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>988</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="15" t="s">
         <v>989</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="15" t="s">
         <v>990</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="15" t="s">
         <v>991</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="15" t="s">
         <v>992</v>
       </c>
-      <c r="H47" s="16" t="s">
+      <c r="H47" s="15" t="s">
         <v>993</v>
       </c>
-      <c r="I47" s="16" t="s">
+      <c r="I47" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="J47" s="16" t="s">
+      <c r="J47" s="15" t="s">
         <v>994</v>
       </c>
-      <c r="K47" s="16" t="s">
+      <c r="K47" s="15" t="s">
         <v>995</v>
       </c>
-      <c r="L47" s="16" t="s">
+      <c r="L47" s="15" t="s">
         <v>996</v>
       </c>
-      <c r="M47" s="16" t="s">
+      <c r="M47" s="15" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="17" t="s">
         <v>650</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="15" t="s">
         <v>998</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="15" t="s">
         <v>999</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="15" t="s">
         <v>1000</v>
       </c>
-      <c r="H48" s="16" t="s">
+      <c r="H48" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="I48" s="16" t="s">
+      <c r="I48" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="J48" s="16" t="s">
+      <c r="J48" s="15" t="s">
         <v>1001</v>
       </c>
-      <c r="K48" s="16" t="s">
+      <c r="K48" s="15" t="s">
         <v>1002</v>
       </c>
-      <c r="L48" s="16" t="s">
+      <c r="L48" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M48" s="16" t="s">
+      <c r="M48" s="15" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>1003</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="15" t="s">
         <v>1004</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="15" t="s">
         <v>1005</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="15" t="s">
         <v>1006</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="15" t="s">
         <v>1007</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="G49" s="15" t="s">
         <v>1008</v>
       </c>
-      <c r="H49" s="16" t="s">
+      <c r="H49" s="15" t="s">
         <v>1009</v>
       </c>
-      <c r="I49" s="16" t="s">
+      <c r="I49" s="15" t="s">
         <v>1010</v>
       </c>
-      <c r="J49" s="16" t="s">
+      <c r="J49" s="15" t="s">
         <v>1011</v>
       </c>
-      <c r="K49" s="16" t="s">
+      <c r="K49" s="15" t="s">
         <v>1012</v>
       </c>
-      <c r="L49" s="16" t="s">
+      <c r="L49" s="15" t="s">
         <v>1005</v>
       </c>
-      <c r="M49" s="16" t="s">
+      <c r="M49" s="15" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="15" t="s">
         <v>1013</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="15" t="s">
         <v>1014</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="15" t="s">
         <v>1015</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="15" t="s">
         <v>1006</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="15" t="s">
         <v>1016</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G50" s="15" t="s">
         <v>1017</v>
       </c>
-      <c r="H50" s="16" t="s">
+      <c r="H50" s="15" t="s">
         <v>1018</v>
       </c>
-      <c r="I50" s="16" t="s">
+      <c r="I50" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="J50" s="16" t="s">
+      <c r="J50" s="15" t="s">
         <v>1019</v>
       </c>
-      <c r="K50" s="16" t="s">
+      <c r="K50" s="15" t="s">
         <v>1020</v>
       </c>
-      <c r="L50" s="16" t="s">
+      <c r="L50" s="15" t="s">
         <v>1021</v>
       </c>
-      <c r="M50" s="16" t="s">
+      <c r="M50" s="15" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="17" t="s">
         <v>1022</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>1023</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="15" t="s">
         <v>1024</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="15" t="s">
         <v>1025</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="15" t="s">
         <v>1026</v>
       </c>
-      <c r="H51" s="16" t="s">
+      <c r="H51" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="I51" s="16" t="s">
+      <c r="I51" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="J51" s="16" t="s">
+      <c r="J51" s="15" t="s">
         <v>1027</v>
       </c>
-      <c r="K51" s="16" t="s">
+      <c r="K51" s="15" t="s">
         <v>1028</v>
       </c>
-      <c r="L51" s="16" t="s">
+      <c r="L51" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M51" s="16" t="s">
+      <c r="M51" s="15" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="15" t="s">
         <v>1029</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="15" t="s">
         <v>1030</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="15" t="s">
         <v>1031</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="15" t="s">
         <v>1032</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="G52" s="15" t="s">
         <v>1033</v>
       </c>
-      <c r="H52" s="16" t="s">
+      <c r="H52" s="15" t="s">
         <v>1034</v>
       </c>
-      <c r="I52" s="16" t="s">
+      <c r="I52" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="J52" s="16" t="s">
+      <c r="J52" s="15" t="s">
         <v>1035</v>
       </c>
-      <c r="K52" s="16" t="s">
+      <c r="K52" s="15" t="s">
         <v>1036</v>
       </c>
-      <c r="L52" s="16" t="s">
+      <c r="L52" s="15" t="s">
         <v>1037</v>
       </c>
-      <c r="M52" s="16" t="s">
+      <c r="M52" s="15" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="15" t="s">
         <v>1038</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="15" t="s">
         <v>1039</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="15" t="s">
         <v>1040</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="G53" s="15" t="s">
         <v>1041</v>
       </c>
-      <c r="H53" s="16" t="s">
+      <c r="H53" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="I53" s="16" t="s">
+      <c r="I53" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J53" s="16" t="s">
+      <c r="J53" s="15" t="s">
         <v>1042</v>
       </c>
-      <c r="K53" s="16" t="s">
+      <c r="K53" s="15" t="s">
         <v>1043</v>
       </c>
-      <c r="L53" s="16" t="s">
+      <c r="L53" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="M53" s="16" t="s">
+      <c r="M53" s="15" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="17" t="s">
         <v>1044</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="15" t="s">
         <v>1045</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="15" t="s">
         <v>1046</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="15" t="s">
         <v>1047</v>
       </c>
-      <c r="G54" s="16" t="s">
+      <c r="G54" s="15" t="s">
         <v>1048</v>
       </c>
-      <c r="H54" s="16" t="s">
+      <c r="H54" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="I54" s="16" t="s">
+      <c r="I54" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="J54" s="16" t="s">
+      <c r="J54" s="15" t="s">
         <v>1049</v>
       </c>
-      <c r="K54" s="16" t="s">
+      <c r="K54" s="15" t="s">
         <v>1050</v>
       </c>
-      <c r="L54" s="16" t="s">
+      <c r="L54" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M54" s="16" t="s">
+      <c r="M54" s="15" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="15" t="s">
         <v>1051</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="15" t="s">
         <v>1052</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="15" t="s">
         <v>1053</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="15" t="s">
         <v>1054</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="G55" s="15" t="s">
         <v>1055</v>
       </c>
-      <c r="H55" s="16" t="s">
+      <c r="H55" s="15" t="s">
         <v>1056</v>
       </c>
-      <c r="I55" s="16" t="s">
+      <c r="I55" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="J55" s="16" t="s">
+      <c r="J55" s="15" t="s">
         <v>1057</v>
       </c>
-      <c r="K55" s="16" t="s">
+      <c r="K55" s="15" t="s">
         <v>1058</v>
       </c>
-      <c r="L55" s="16" t="s">
+      <c r="L55" s="15" t="s">
         <v>1059</v>
       </c>
-      <c r="M55" s="16" t="s">
+      <c r="M55" s="15" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="15" t="s">
         <v>1060</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="15" t="s">
         <v>1061</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="15" t="s">
         <v>1062</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="15" t="s">
         <v>1063</v>
       </c>
-      <c r="G56" s="16" t="s">
+      <c r="G56" s="15" t="s">
         <v>1064</v>
       </c>
-      <c r="H56" s="16" t="s">
+      <c r="H56" s="15" t="s">
         <v>1065</v>
       </c>
-      <c r="I56" s="16" t="s">
+      <c r="I56" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="J56" s="16" t="s">
+      <c r="J56" s="15" t="s">
         <v>1066</v>
       </c>
-      <c r="K56" s="16" t="s">
+      <c r="K56" s="15" t="s">
         <v>1067</v>
       </c>
-      <c r="L56" s="16" t="s">
+      <c r="L56" s="15" t="s">
         <v>1068</v>
       </c>
-      <c r="M56" s="16" t="s">
+      <c r="M56" s="15" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="17" t="s">
         <v>1069</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>1070</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="15" t="s">
         <v>1071</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" s="15" t="s">
         <v>1072</v>
       </c>
-      <c r="G57" s="16" t="s">
+      <c r="G57" s="15" t="s">
         <v>1073</v>
       </c>
-      <c r="H57" s="16" t="s">
+      <c r="H57" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="I57" s="16" t="s">
+      <c r="I57" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="J57" s="16" t="s">
+      <c r="J57" s="15" t="s">
         <v>1074</v>
       </c>
-      <c r="K57" s="16" t="s">
+      <c r="K57" s="15" t="s">
         <v>1075</v>
       </c>
-      <c r="L57" s="16" t="s">
+      <c r="L57" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M57" s="16" t="s">
+      <c r="M57" s="15" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="15" t="s">
         <v>1076</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="15" t="s">
         <v>1077</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="15" t="s">
         <v>1078</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="F58" s="15" t="s">
         <v>1079</v>
       </c>
-      <c r="G58" s="16" t="s">
+      <c r="G58" s="15" t="s">
         <v>1080</v>
       </c>
-      <c r="H58" s="16" t="s">
+      <c r="H58" s="15" t="s">
         <v>1081</v>
       </c>
-      <c r="I58" s="16" t="s">
+      <c r="I58" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="J58" s="16" t="s">
+      <c r="J58" s="15" t="s">
         <v>1082</v>
       </c>
-      <c r="K58" s="16" t="s">
+      <c r="K58" s="15" t="s">
         <v>1083</v>
       </c>
-      <c r="L58" s="16" t="s">
+      <c r="L58" s="15" t="s">
         <v>1084</v>
       </c>
-      <c r="M58" s="16" t="s">
+      <c r="M58" s="15" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="15" t="s">
         <v>1085</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="15" t="s">
         <v>1086</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="15" t="s">
         <v>1018</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="F59" s="15" t="s">
         <v>1087</v>
       </c>
-      <c r="G59" s="16" t="s">
+      <c r="G59" s="15" t="s">
         <v>1088</v>
       </c>
-      <c r="H59" s="16" t="s">
+      <c r="H59" s="15" t="s">
         <v>1089</v>
       </c>
-      <c r="I59" s="16" t="s">
+      <c r="I59" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="J59" s="16" t="s">
+      <c r="J59" s="15" t="s">
         <v>1090</v>
       </c>
-      <c r="K59" s="16" t="s">
+      <c r="K59" s="15" t="s">
         <v>1091</v>
       </c>
-      <c r="L59" s="16" t="s">
+      <c r="L59" s="15" t="s">
         <v>1092</v>
       </c>
-      <c r="M59" s="16" t="s">
+      <c r="M59" s="15" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="15" t="s">
         <v>1093</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="17" t="s">
         <v>668</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="15" t="s">
         <v>541</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F61" s="16" t="s">
+      <c r="F61" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="G61" s="16" t="s">
+      <c r="G61" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="H61" s="16" t="s">
+      <c r="H61" s="15" t="s">
         <v>740</v>
       </c>
-      <c r="I61" s="16" t="s">
+      <c r="I61" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J61" s="16" t="s">
+      <c r="J61" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="K61" s="16" t="s">
+      <c r="K61" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="L61" s="16" t="s">
+      <c r="L61" s="15" t="s">
         <v>1094</v>
       </c>
-      <c r="M61" s="16" t="s">
+      <c r="M61" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="15" t="s">
         <v>582</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="F62" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="G62" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="H62" s="16" t="s">
+      <c r="H62" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="I62" s="16" t="s">
+      <c r="I62" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J62" s="16" t="s">
+      <c r="J62" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="K62" s="16" t="s">
+      <c r="K62" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="L62" s="16" t="s">
+      <c r="L62" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="M62" s="16" t="s">
+      <c r="M62" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="15" t="s">
         <v>556</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="F63" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="G63" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="H63" s="16" t="s">
+      <c r="H63" s="15" t="s">
         <v>1095</v>
       </c>
-      <c r="I63" s="16" t="s">
+      <c r="I63" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J63" s="16" t="s">
+      <c r="J63" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="K63" s="16" t="s">
+      <c r="K63" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="L63" s="16" t="s">
+      <c r="L63" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="M63" s="16" t="s">
+      <c r="M63" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D64" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="F64" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="G64" s="16" t="s">
+      <c r="G64" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="H64" s="16" t="s">
+      <c r="H64" s="15" t="s">
         <v>1096</v>
       </c>
-      <c r="I64" s="16" t="s">
+      <c r="I64" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J64" s="16" t="s">
+      <c r="J64" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="K64" s="16" t="s">
+      <c r="K64" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="L64" s="16" t="s">
+      <c r="L64" s="15" t="s">
         <v>1097</v>
       </c>
-      <c r="M64" s="16" t="s">
+      <c r="M64" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="15" t="s">
         <v>1098</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="17" t="s">
         <v>1099</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="15" t="s">
         <v>1100</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="15" t="s">
         <v>1101</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="F66" s="16" t="s">
+      <c r="F66" s="15" t="s">
         <v>1102</v>
       </c>
-      <c r="G66" s="16" t="s">
+      <c r="G66" s="15" t="s">
         <v>1103</v>
       </c>
-      <c r="H66" s="16" t="s">
+      <c r="H66" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="I66" s="16" t="s">
+      <c r="I66" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="J66" s="16" t="s">
+      <c r="J66" s="15" t="s">
         <v>1104</v>
       </c>
-      <c r="K66" s="16" t="s">
+      <c r="K66" s="15" t="s">
         <v>1105</v>
       </c>
-      <c r="L66" s="16" t="s">
+      <c r="L66" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M66" s="16" t="s">
+      <c r="M66" s="15" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="18" t="s">
         <v>668</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="15" t="s">
         <v>1106</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="15" t="s">
         <v>1107</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="F67" s="16" t="s">
+      <c r="F67" s="15" t="s">
         <v>1108</v>
       </c>
-      <c r="G67" s="16" t="s">
+      <c r="G67" s="15" t="s">
         <v>1101</v>
       </c>
-      <c r="H67" s="16" t="s">
+      <c r="H67" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="I67" s="16" t="s">
+      <c r="I67" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="J67" s="16" t="s">
+      <c r="J67" s="15" t="s">
         <v>1109</v>
       </c>
-      <c r="K67" s="16" t="s">
+      <c r="K67" s="15" t="s">
         <v>1110</v>
       </c>
-      <c r="L67" s="16" t="s">
+      <c r="L67" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M67" s="16" t="s">
+      <c r="M67" s="15" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="15" t="s">
         <v>1111</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="15" t="s">
         <v>1112</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="F68" s="16" t="s">
+      <c r="F68" s="15" t="s">
         <v>1113</v>
       </c>
-      <c r="G68" s="16" t="s">
+      <c r="G68" s="15" t="s">
         <v>1114</v>
       </c>
-      <c r="H68" s="16" t="s">
+      <c r="H68" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="I68" s="16" t="s">
+      <c r="I68" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="J68" s="16" t="s">
+      <c r="J68" s="15" t="s">
         <v>1115</v>
       </c>
-      <c r="K68" s="16" t="s">
+      <c r="K68" s="15" t="s">
         <v>1116</v>
       </c>
-      <c r="L68" s="16" t="s">
+      <c r="L68" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M68" s="16" t="s">
+      <c r="M68" s="15" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="15" t="s">
         <v>1117</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="15" t="s">
         <v>1118</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="F69" s="16" t="s">
+      <c r="F69" s="15" t="s">
         <v>1119</v>
       </c>
-      <c r="G69" s="16" t="s">
+      <c r="G69" s="15" t="s">
         <v>1120</v>
       </c>
-      <c r="H69" s="16" t="s">
+      <c r="H69" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="I69" s="16" t="s">
+      <c r="I69" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="J69" s="16" t="s">
+      <c r="J69" s="15" t="s">
         <v>1121</v>
       </c>
-      <c r="K69" s="16" t="s">
+      <c r="K69" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="L69" s="16" t="s">
+      <c r="L69" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M69" s="16" t="s">
+      <c r="M69" s="15" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="15" t="s">
         <v>1122</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="15" t="s">
         <v>1123</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="F70" s="16" t="s">
+      <c r="F70" s="15" t="s">
         <v>1124</v>
       </c>
-      <c r="G70" s="16" t="s">
+      <c r="G70" s="15" t="s">
         <v>1125</v>
       </c>
-      <c r="H70" s="16" t="s">
+      <c r="H70" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="I70" s="16" t="s">
+      <c r="I70" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="J70" s="16" t="s">
+      <c r="J70" s="15" t="s">
         <v>1126</v>
       </c>
-      <c r="K70" s="16" t="s">
+      <c r="K70" s="15" t="s">
         <v>1127</v>
       </c>
-      <c r="L70" s="16" t="s">
+      <c r="L70" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M70" s="16" t="s">
+      <c r="M70" s="15" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="15" t="s">
         <v>1128</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="15" t="s">
         <v>1129</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="F71" s="15" t="s">
         <v>1130</v>
       </c>
-      <c r="G71" s="16" t="s">
+      <c r="G71" s="15" t="s">
         <v>1131</v>
       </c>
-      <c r="H71" s="16" t="s">
+      <c r="H71" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="I71" s="16" t="s">
+      <c r="I71" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="J71" s="16" t="s">
+      <c r="J71" s="15" t="s">
         <v>1132</v>
       </c>
-      <c r="K71" s="16" t="s">
+      <c r="K71" s="15" t="s">
         <v>1133</v>
       </c>
-      <c r="L71" s="16" t="s">
+      <c r="L71" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M71" s="16" t="s">
+      <c r="M71" s="15" t="s">
         <v>663</v>
       </c>
     </row>
@@ -34313,14 +37893,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A0A584-26CA-4F7C-931B-B7BAD84D753D}">
-  <dimension ref="A1"/>
+  <dimension ref="AI28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
+    <sheetView tabSelected="1" topLeftCell="R11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="28" spans="35:35" x14ac:dyDescent="0.25">
+      <c r="AI28">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
